--- a/src/results/cocomodata.xlsx
+++ b/src/results/cocomodata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="68800" windowHeight="28280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Mystery1</t>
-  </si>
-  <si>
-    <t>Mystery2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>coc81</t>
   </si>
@@ -44,20 +38,38 @@
     <t>nasa93</t>
   </si>
   <si>
-    <t>Bellwether</t>
-  </si>
-  <si>
     <t>TCA</t>
   </si>
   <si>
     <t>TNB</t>
+  </si>
+  <si>
+    <t>W/T/L</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>4/0/1</t>
+  </si>
+  <si>
+    <t>1/0/4</t>
+  </si>
+  <si>
+    <t>0/0/5</t>
+  </si>
+  <si>
+    <t>coc10</t>
+  </si>
+  <si>
+    <t>nasa10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,20 +78,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,15 +141,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,11 +372,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bellwether</c:v>
+                  <c:v>Bell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -263,7 +398,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -273,25 +408,25 @@
                   <c:v>coc81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mystery2</c:v>
+                  <c:v>nasa10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>nasa93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Mystery1</c:v>
+                  <c:v>coc10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -314,7 +449,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -326,8 +461,9 @@
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="85000"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:sysClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
@@ -340,7 +476,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -350,25 +486,25 @@
                   <c:v>coc81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mystery2</c:v>
+                  <c:v>nasa10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>nasa93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Mystery1</c:v>
+                  <c:v>coc10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0</c:v>
@@ -391,7 +527,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -403,8 +539,9 @@
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="85000"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:sysClr>
               </a:solidFill>
               <a:prstDash val="lgDash"/>
@@ -417,7 +554,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -427,25 +564,25 @@
                   <c:v>coc81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mystery2</c:v>
+                  <c:v>nasa10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>nasa93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Mystery1</c:v>
+                  <c:v>coc10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30.0</c:v>
@@ -471,11 +608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-501839840"/>
-        <c:axId val="-501837088"/>
+        <c:axId val="-1184055936"/>
+        <c:axId val="-1184053184"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-501839840"/>
+        <c:axId val="-1184055936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-501837088"/>
+        <c:crossAx val="-1184053184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -526,7 +663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-501837088"/>
+        <c:axId val="-1184053184"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -536,10 +673,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -580,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-501839840"/>
+        <c:crossAx val="-1184055936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40.0"/>
@@ -1217,15 +1354,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1812,98 +1949,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="5" width="5.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E4" s="9">
+        <v>30</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>62</v>
+      </c>
+      <c r="E6" s="9">
+        <v>225</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>196</v>
+      </c>
+      <c r="D7" s="11">
+        <v>126</v>
+      </c>
+      <c r="E7" s="12">
+        <v>107</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>62</v>
-      </c>
-      <c r="D5">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>196</v>
-      </c>
-      <c r="C6">
-        <v>126</v>
-      </c>
-      <c r="D6">
-        <v>107</v>
-      </c>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D6">
-    <sortCondition ref="B2:B6"/>
+  <sortState ref="B2:E6">
+    <sortCondition ref="C2:C6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
